--- a/ipc-webscraping/data/base100/base_educacion.xlsx
+++ b/ipc-webscraping/data/base100/base_educacion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>18/11/2025</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>19/11/2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -614,6 +619,9 @@
       <c r="V2" t="n">
         <v>99.92971060221177</v>
       </c>
+      <c r="W2" t="n">
+        <v>100.2102927241131</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -684,6 +692,9 @@
       <c r="V3" t="n">
         <v>105.3733857204094</v>
       </c>
+      <c r="W3" t="n">
+        <v>104.9736951573098</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -753,6 +764,9 @@
       </c>
       <c r="V4" t="n">
         <v>94.9721688567806</v>
+      </c>
+      <c r="W4" t="n">
+        <v>100.1336257863385</v>
       </c>
     </row>
   </sheetData>

--- a/ipc-webscraping/data/base100/base_educacion.xlsx
+++ b/ipc-webscraping/data/base100/base_educacion.xlsx
@@ -706,67 +706,67 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>99.76987667765593</v>
+        <v>99.68911785819242</v>
       </c>
       <c r="D4" t="n">
-        <v>97.8705346860352</v>
+        <v>97.8764596989016</v>
       </c>
       <c r="E4" t="n">
-        <v>99.80458389968582</v>
+        <v>99.86827131429874</v>
       </c>
       <c r="F4" t="n">
-        <v>99.80458389968582</v>
+        <v>99.86827131429874</v>
       </c>
       <c r="G4" t="n">
-        <v>99.56341841437849</v>
+        <v>99.63411649565175</v>
       </c>
       <c r="H4" t="n">
-        <v>99.33963805020726</v>
+        <v>99.47391191822777</v>
       </c>
       <c r="I4" t="n">
-        <v>99.69018511706741</v>
+        <v>99.75720019686693</v>
       </c>
       <c r="J4" t="n">
-        <v>99.38089610031841</v>
+        <v>99.37036544112034</v>
       </c>
       <c r="K4" t="n">
-        <v>99.85351661822361</v>
+        <v>99.88689022230388</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3149305151679</v>
+        <v>100.3637267846061</v>
       </c>
       <c r="M4" t="n">
-        <v>100.3786948731735</v>
+        <v>100.425625321747</v>
       </c>
       <c r="N4" t="n">
-        <v>99.76282931422666</v>
+        <v>99.7699008846505</v>
       </c>
       <c r="O4" t="n">
-        <v>101.3218975234676</v>
+        <v>101.2821860138322</v>
       </c>
       <c r="P4" t="n">
-        <v>100.7250395651701</v>
+        <v>101.3264228969774</v>
       </c>
       <c r="Q4" t="n">
-        <v>100.4201341593202</v>
+        <v>100.2598105917076</v>
       </c>
       <c r="R4" t="n">
-        <v>100.4311435314047</v>
+        <v>100.1500979650976</v>
       </c>
       <c r="S4" t="n">
-        <v>100.085806363926</v>
+        <v>99.81619054400026</v>
       </c>
       <c r="T4" t="n">
-        <v>98.91158957389847</v>
+        <v>98.71030596592199</v>
       </c>
       <c r="U4" t="n">
-        <v>99.38570613563661</v>
+        <v>99.25803921473501</v>
       </c>
       <c r="V4" t="n">
-        <v>94.9721688567806</v>
+        <v>94.69521953113951</v>
       </c>
       <c r="W4" t="n">
-        <v>100.1336257863385</v>
+        <v>99.98237853261257</v>
       </c>
     </row>
   </sheetData>

--- a/ipc-webscraping/data/base100/base_educacion.xlsx
+++ b/ipc-webscraping/data/base100/base_educacion.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ipc_geometrico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,331 +441,1002 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>29/10/2025</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>30/10/2025</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>31/10/2025</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>01/11/2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>02/11/2025</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03/11/2025</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05/11/2025</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06/11/2025</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>07/11/2025</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>08/11/2025</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>09/11/2025</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>10/11/2025</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>12/11/2025</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>13/11/2025</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>14/11/2025</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>15/11/2025</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>16/11/2025</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>17/11/2025</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>18/11/2025</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>19/11/2025</t>
+          <t>VALOR</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>INICIAL</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>98.93209294081434</v>
       </c>
-      <c r="D2" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>101.6373455722543</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>99.68911785819242</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>99.29433897694584</v>
       </c>
-      <c r="E2" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>98.94451675543773</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>97.8764596989016</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>98.58676909867475</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>101.7239012852905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>99.86827131429874</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>98.58676909867475</v>
       </c>
-      <c r="G2" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>101.7239012852905</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>99.86827131429874</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>98.44570530158514</v>
       </c>
-      <c r="H2" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>103.6268069509103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>99.63411649565175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>97.97100029593364</v>
       </c>
-      <c r="I2" t="n">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>103.1740416360331</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>99.47391191822777</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>95.08095112530157</v>
       </c>
-      <c r="J2" t="n">
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>102.9189125071747</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>99.75720019686693</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>94.22673742374398</v>
       </c>
-      <c r="K2" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>102.9097038887227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>99.37036544112034</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>93.34124961385692</v>
       </c>
-      <c r="L2" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>102.9104913529946</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>99.88689022230388</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>93.9625016588918</v>
       </c>
-      <c r="M2" t="n">
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>102.6292280772449</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>100.3637267846061</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>93.96250165889182</v>
       </c>
-      <c r="N2" t="n">
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>102.9699407276315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>100.425625321747</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>98.63939092566707</v>
       </c>
-      <c r="O2" t="n">
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>103.5271851667119</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>99.7699008846505</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>98.63939092566707</v>
       </c>
-      <c r="P2" t="n">
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>103.7831867022532</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>101.2821860138322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>101.5591200861109</v>
       </c>
-      <c r="Q2" t="n">
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>104.343072301165</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>101.3264228969774</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>98.54592571354644</v>
       </c>
-      <c r="R2" t="n">
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>104.343072301165</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>100.2598105917076</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>99.47374986564257</v>
       </c>
-      <c r="S2" t="n">
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>104.6987697722156</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>100.1500979650976</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>99.71045411468033</v>
       </c>
-      <c r="T2" t="n">
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>104.6336492705496</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>99.81619054400026</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>99.23938013562575</v>
       </c>
-      <c r="U2" t="n">
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>104.9316694661221</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>98.71030596592199</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>99.85601133504235</v>
       </c>
-      <c r="V2" t="n">
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>105.4368622298398</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>99.25803921473501</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>99.92971060221177</v>
       </c>
-      <c r="W2" t="n">
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>105.3733857204094</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>94.69521953113951</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>INICIAL</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>100.2102927241131</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>PRIMARIA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="n">
-        <v>101.6373455722543</v>
-      </c>
-      <c r="D3" t="n">
-        <v>98.94451675543773</v>
-      </c>
-      <c r="E3" t="n">
-        <v>101.7239012852905</v>
-      </c>
-      <c r="F3" t="n">
-        <v>101.7239012852905</v>
-      </c>
-      <c r="G3" t="n">
-        <v>103.6268069509103</v>
-      </c>
-      <c r="H3" t="n">
-        <v>103.1740416360331</v>
-      </c>
-      <c r="I3" t="n">
-        <v>102.9189125071747</v>
-      </c>
-      <c r="J3" t="n">
-        <v>102.9097038887227</v>
-      </c>
-      <c r="K3" t="n">
-        <v>102.9104913529946</v>
-      </c>
-      <c r="L3" t="n">
-        <v>102.6292280772449</v>
-      </c>
-      <c r="M3" t="n">
-        <v>102.9699407276315</v>
-      </c>
-      <c r="N3" t="n">
-        <v>103.5271851667119</v>
-      </c>
-      <c r="O3" t="n">
-        <v>103.7831867022532</v>
-      </c>
-      <c r="P3" t="n">
-        <v>104.343072301165</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>104.343072301165</v>
-      </c>
-      <c r="R3" t="n">
-        <v>104.6987697722156</v>
-      </c>
-      <c r="S3" t="n">
-        <v>104.6336492705496</v>
-      </c>
-      <c r="T3" t="n">
-        <v>104.9316694661221</v>
-      </c>
-      <c r="U3" t="n">
-        <v>105.4368622298398</v>
-      </c>
-      <c r="V3" t="n">
-        <v>105.3733857204094</v>
-      </c>
-      <c r="W3" t="n">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PRIMARIA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>104.9736951573098</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>SECUNDARIA</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" t="n">
-        <v>99.68911785819242</v>
-      </c>
-      <c r="D4" t="n">
-        <v>97.8764596989016</v>
-      </c>
-      <c r="E4" t="n">
-        <v>99.86827131429874</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99.86827131429874</v>
-      </c>
-      <c r="G4" t="n">
-        <v>99.63411649565175</v>
-      </c>
-      <c r="H4" t="n">
-        <v>99.47391191822777</v>
-      </c>
-      <c r="I4" t="n">
-        <v>99.75720019686693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>99.37036544112034</v>
-      </c>
-      <c r="K4" t="n">
-        <v>99.88689022230388</v>
-      </c>
-      <c r="L4" t="n">
-        <v>100.3637267846061</v>
-      </c>
-      <c r="M4" t="n">
-        <v>100.425625321747</v>
-      </c>
-      <c r="N4" t="n">
-        <v>99.7699008846505</v>
-      </c>
-      <c r="O4" t="n">
-        <v>101.2821860138322</v>
-      </c>
-      <c r="P4" t="n">
-        <v>101.3264228969774</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>100.2598105917076</v>
-      </c>
-      <c r="R4" t="n">
-        <v>100.1500979650976</v>
-      </c>
-      <c r="S4" t="n">
-        <v>99.81619054400026</v>
-      </c>
-      <c r="T4" t="n">
-        <v>98.71030596592199</v>
-      </c>
-      <c r="U4" t="n">
-        <v>99.25803921473501</v>
-      </c>
-      <c r="V4" t="n">
-        <v>94.69521953113951</v>
-      </c>
-      <c r="W4" t="n">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SECUNDARIA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>99.98237853261257</v>
       </c>
     </row>
